--- a/Employee_Reports35/Lester John Fuentes Monter Q0607.xlsx
+++ b/Employee_Reports35/Lester John Fuentes Monter Q0607.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1295,11 +1295,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1528,11 +1528,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1626,11 +1626,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1675,11 +1675,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1724,11 +1724,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1773,11 +1773,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1871,11 +1871,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1945,11 +1945,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2093,11 +2093,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2130,11 +2130,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2167,11 +2167,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2204,11 +2204,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2241,11 +2241,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">

--- a/Employee_Reports35/Lester John Fuentes Monter Q0607.xlsx
+++ b/Employee_Reports35/Lester John Fuentes Monter Q0607.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1295,11 +1295,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1528,11 +1528,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1626,11 +1626,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1675,11 +1675,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1724,11 +1724,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1773,11 +1773,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1871,11 +1871,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1945,11 +1945,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2093,11 +2093,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2130,11 +2130,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2167,11 +2167,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2204,11 +2204,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2241,11 +2241,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
